--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.70779999999998</v>
+        <v>-20.56699999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.75370000000001</v>
+        <v>-22.70050000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.055</v>
+        <v>-21.995</v>
       </c>
       <c r="B7" t="n">
-        <v>4.686500000000001</v>
+        <v>5.1722</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.37340000000002</v>
+        <v>-22.33570000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.368399999999999</v>
+        <v>5.331400000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.734099999999999</v>
+        <v>4.695499999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.182699999999998</v>
+        <v>-7.121899999999997</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.665499999999998</v>
+        <v>-8.658799999999996</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.102400000000003</v>
+        <v>-8.192599999999997</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.146199999999998</v>
+        <v>4.899799999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.49339999999998</v>
+        <v>-21.64369999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.059900000000006</v>
+        <v>-9.005100000000009</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.440399999999994</v>
+        <v>-7.386499999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.59110000000001</v>
+        <v>-22.5488</v>
       </c>
       <c r="B20" t="n">
-        <v>4.706699999999997</v>
+        <v>4.366899999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.726399999999995</v>
+        <v>-7.681399999999994</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.23289999999999</v>
+        <v>-22.2667</v>
       </c>
       <c r="B21" t="n">
-        <v>5.577999999999999</v>
+        <v>5.244199999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.161200000000003</v>
+        <v>9.158600000000002</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.148300000000004</v>
+        <v>-8.115900000000002</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.903000000000002</v>
+        <v>9.018900000000007</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.2928</v>
+        <v>-22.3389</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.70350000000001</v>
+        <v>-21.7146</v>
       </c>
       <c r="B29" t="n">
-        <v>5.176400000000004</v>
+        <v>4.921800000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.77760000000001</v>
+        <v>-21.74630000000002</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2532</v>
+        <v>-21.20689999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.77550000000001</v>
+        <v>9.411800000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.228899999999992</v>
+        <v>-8.172999999999995</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.4197</v>
+        <v>-19.3115</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.711799999999993</v>
+        <v>9.319399999999996</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.377600000000001</v>
+        <v>5.115800000000003</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.915899999999999</v>
+        <v>-8.724799999999997</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.515199999999998</v>
+        <v>5.584900000000001</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.051300000000001</v>
+        <v>4.954600000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.12560000000001</v>
+        <v>-22.19540000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>5.372400000000003</v>
+        <v>5.627200000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.025199999999993</v>
+        <v>-8.038599999999995</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.686699999999996</v>
+        <v>4.392799999999997</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.299299999999995</v>
+        <v>-8.199599999999997</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.22969999999999</v>
+        <v>-22.242</v>
       </c>
       <c r="B51" t="n">
-        <v>5.501899999999997</v>
+        <v>5.221599999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.09669999999999</v>
+        <v>-21.95739999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.68740000000001</v>
+        <v>-22.61780000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>5.086699999999996</v>
+        <v>5.347899999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.21220000000001</v>
+        <v>-22.1537</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.1063</v>
+        <v>-22.13120000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.4741</v>
+        <v>5.047900000000004</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.6107</v>
+        <v>-21.5521</v>
       </c>
       <c r="B66" t="n">
-        <v>4.972799999999997</v>
+        <v>5.012199999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.227900000000001</v>
+        <v>5.290699999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.8587</v>
+        <v>-20.03849999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.95029999999998</v>
+        <v>-21.96599999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.0236</v>
+        <v>-8.065800000000001</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.01409999999998</v>
+        <v>-20.03109999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.989900000000004</v>
+        <v>9.332100000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.714200000000001</v>
+        <v>5.534700000000002</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.890499999999996</v>
+        <v>5.011899999999996</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.37320000000001</v>
+        <v>-21.46000000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>5.406899999999995</v>
+        <v>4.832699999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.198600000000001</v>
+        <v>-8.097200000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.186899999999996</v>
+        <v>6.214100000000003</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.546099999999994</v>
+        <v>-8.473499999999994</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.249799999999999</v>
+        <v>-8.2844</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1477</v>
+        <v>-22.1388</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
